--- a/open_coding/Card Sorting.xlsx
+++ b/open_coding/Card Sorting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nrcase/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nrcase/research/Smashing-CC/open_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC344E85-B842-A84B-94F7-59E32A459859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7E5782-F2EF-A943-9E12-D5AD6132926F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16800" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="14660" windowHeight="18400" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,13 @@
     <sheet name="Easy_pivot" sheetId="11" r:id="rId9"/>
     <sheet name="difficult_combined" sheetId="12" r:id="rId10"/>
     <sheet name="Difficult_pivot" sheetId="13" r:id="rId11"/>
-    <sheet name="Sheet7" sheetId="14" r:id="rId12"/>
+    <sheet name="Sig" sheetId="14" r:id="rId12"/>
     <sheet name="effect_combined" sheetId="15" state="hidden" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId14"/>
-    <pivotCache cacheId="10" r:id="rId15"/>
+    <pivotCache cacheId="5" r:id="rId14"/>
+    <pivotCache cacheId="9" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2045,10 +2045,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2093,40 +2093,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nick Case" refreshedDate="45503.924728819446" refreshedVersion="8" recordCount="144" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="C1:C1010" sheet="difficult_combined"/>
-  </cacheSource>
-  <cacheFields count="1">
-    <cacheField name=" " numFmtId="0">
-      <sharedItems containsBlank="1" count="14">
-        <m/>
-        <s v="Large Scope"/>
-        <s v="Comprehension"/>
-        <s v="Delta Comprehension"/>
-        <s v="N/A"/>
-        <s v="Unfamiliar Code"/>
-        <s v="Self-Doubt"/>
-        <s v="Context Comprehension"/>
-        <s v="Other"/>
-        <s v="Deep Changes"/>
-        <s v="Limited/Misaligned View"/>
-        <s v="Toolchain Issues"/>
-        <s v="Unclear Motivation"/>
-        <s v="Limited Time"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nick Case" refreshedDate="45503.924729050923" refreshedVersion="8" recordCount="139" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nick Case" refreshedDate="45506.719196759259" refreshedVersion="8" recordCount="139" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D140" sheet="easy_combined"/>
   </cacheSource>
@@ -2165,444 +2132,40 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="144">
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nick Case" refreshedDate="45506.719196874998" refreshedVersion="8" recordCount="144" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:C1010" sheet="difficult_combined"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name=" " numFmtId="0">
+      <sharedItems containsBlank="1" count="14">
+        <m/>
+        <s v="Large Scope"/>
+        <s v="Comprehension"/>
+        <s v="Delta Comprehension"/>
+        <s v="N/A"/>
+        <s v="Unfamiliar Code"/>
+        <s v="Self-Doubt"/>
+        <s v="Context Comprehension"/>
+        <s v="Other"/>
+        <s v="Deep Changes"/>
+        <s v="Limited/Misaligned View"/>
+        <s v="Toolchain Issues"/>
+        <s v="Unclear Motivation"/>
+        <s v="Limited Time"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="139">
   <r>
     <s v="All"/>
@@ -3441,8 +3004,445 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="144">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0F00-000001000000}" name="Easy_pivot" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0F00-000001000000}" name="Easy_pivot" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="A1:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField name="Easy" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -3526,7 +3526,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0F00-000002000000}" name="Difficult_pivot" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0F00-000002000000}" name="Difficult_pivot" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="A1:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField name=" " axis="axisRow" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -11005,7 +11005,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -11027,7 +11027,7 @@
       <c r="A2" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="16">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -11038,10 +11038,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="17">
         <v>28</v>
       </c>
       <c r="C3" s="10">
@@ -11053,10 +11053,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
       <c r="C4" s="10">
@@ -11068,10 +11068,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="17">
         <v>20</v>
       </c>
       <c r="C5" s="10">
@@ -11083,10 +11083,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="17">
         <v>14</v>
       </c>
       <c r="C6" s="10">
@@ -11098,10 +11098,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="17">
         <v>3</v>
       </c>
       <c r="C7" s="10">
@@ -11113,10 +11113,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="17">
         <v>5</v>
       </c>
       <c r="C8" s="10">
@@ -11128,10 +11128,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="17">
         <v>12</v>
       </c>
       <c r="C9" s="10">
@@ -11143,10 +11143,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="17">
         <v>10</v>
       </c>
       <c r="C10" s="10">
@@ -11158,10 +11158,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="17">
         <v>5</v>
       </c>
       <c r="C11" s="10">
@@ -11173,10 +11173,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="17">
         <v>3</v>
       </c>
       <c r="C12" s="10">
@@ -11188,10 +11188,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="17">
         <v>4</v>
       </c>
       <c r="C13" s="10">
@@ -11203,10 +11203,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="17">
         <v>6</v>
       </c>
       <c r="C14" s="10">
@@ -11218,10 +11218,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11231,7 +11231,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>513</v>
       </c>
       <c r="B16" s="18">
@@ -11284,7 +11284,7 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -27027,7 +27027,7 @@
   </sheetPr>
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -28708,7 +28708,7 @@
       <c r="A2" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="16">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -28719,10 +28719,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="17">
         <v>2</v>
       </c>
       <c r="C3" s="10">
@@ -28734,10 +28734,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="17">
         <v>11</v>
       </c>
       <c r="C4" s="10">
@@ -28749,10 +28749,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="17">
         <v>38</v>
       </c>
       <c r="C5" s="10">
@@ -28764,10 +28764,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="17">
         <v>16</v>
       </c>
       <c r="C6" s="10">
@@ -28779,10 +28779,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="17">
         <v>28</v>
       </c>
       <c r="C7" s="10">
@@ -28794,10 +28794,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="17">
         <v>5</v>
       </c>
       <c r="C8" s="10">
@@ -28809,10 +28809,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="17">
         <v>6</v>
       </c>
       <c r="C9" s="10">
@@ -28824,10 +28824,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="17">
         <v>2</v>
       </c>
       <c r="C10" s="10">
@@ -28839,10 +28839,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="17">
         <v>14</v>
       </c>
       <c r="C11" s="10">
@@ -28854,10 +28854,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="17">
         <v>5</v>
       </c>
       <c r="C12" s="10">
@@ -28869,10 +28869,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -28882,7 +28882,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>513</v>
       </c>
       <c r="B14" s="18">
